--- a/ExcelData/Import/PokerData.xlsx
+++ b/ExcelData/Import/PokerData.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B638E5-1B81-4422-81B9-4C90A2BEEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pokerRes" sheetId="1" r:id="rId1"/>
     <sheet name="pokerHandRanking" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -346,7 +357,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -489,6 +500,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -524,6 +552,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -699,11 +744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1563,11 +1608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G28" sqref="F28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ExcelData/Import/PokerData.xlsx
+++ b/ExcelData/Import/PokerData.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B638E5-1B81-4422-81B9-4C90A2BEEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20AD2E-BB11-4D34-9F64-B92E4691DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pokerRes" sheetId="1" r:id="rId1"/>
     <sheet name="pokerHandRanking" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pokerHandRanking!$A$2:$F$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,53 +30,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1黑桃
 2红心
 3梅花
 4方片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>handImage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tableImage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dogImage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>黑桃A</t>
@@ -231,52 +235,48 @@
     <t>方片K</t>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ranking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Royal Flush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Straight Flush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Four Of a Kind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Full House</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Flush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Three of a Kind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Two Pair</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Pair</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>High Card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FLUSH</t>
@@ -306,65 +306,84 @@
     <t>HIGH_CARD</t>
   </si>
   <si>
-    <t>,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Straight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STRAIGHT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>皇家同花顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同花顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>四条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>三条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>顺子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>两对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>一对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eunm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -401,12 +420,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -747,28 +767,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -820,9 +840,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <f>C4*1000+D4</f>
         <v>1014</v>
       </c>
       <c r="C4" s="1">
@@ -835,9 +854,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A55" si="0">C5*1000+D5</f>
         <v>1002</v>
       </c>
       <c r="C5" s="1">
@@ -850,9 +868,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="C6" s="1">
@@ -865,9 +882,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="C7" s="1">
@@ -880,9 +896,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="C8" s="1">
@@ -895,9 +910,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
         <v>1006</v>
       </c>
       <c r="C9" s="1">
@@ -910,9 +924,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
         <v>1007</v>
       </c>
       <c r="C10" s="1">
@@ -925,9 +938,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
         <v>1008</v>
       </c>
       <c r="C11" s="1">
@@ -940,9 +952,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
         <v>1009</v>
       </c>
       <c r="C12" s="1">
@@ -955,9 +966,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
         <v>1010</v>
       </c>
       <c r="C13" s="1">
@@ -970,9 +980,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
         <v>1011</v>
       </c>
       <c r="C14" s="1">
@@ -985,9 +994,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
         <v>1012</v>
       </c>
       <c r="C15" s="1">
@@ -1000,9 +1008,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
         <v>1013</v>
       </c>
       <c r="C16" s="1">
@@ -1015,9 +1022,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="C17" s="1">
@@ -1030,9 +1036,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="C18" s="1">
@@ -1045,9 +1050,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="C19" s="1">
@@ -1060,9 +1064,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="C20" s="1">
@@ -1075,9 +1078,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
       <c r="C21" s="1">
@@ -1090,9 +1092,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="C22" s="1">
@@ -1105,9 +1106,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="C23" s="1">
@@ -1120,9 +1120,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="C24" s="1">
@@ -1135,9 +1134,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="C25" s="1">
@@ -1150,9 +1148,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="C26" s="1">
@@ -1165,9 +1162,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="C27" s="1">
@@ -1180,9 +1176,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="C28" s="1">
@@ -1195,9 +1190,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="C29" s="1">
@@ -1210,9 +1204,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
         <v>3014</v>
       </c>
       <c r="C30" s="1">
@@ -1225,9 +1218,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
         <v>3002</v>
       </c>
       <c r="C31" s="1">
@@ -1240,9 +1232,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
         <v>3003</v>
       </c>
       <c r="C32" s="1">
@@ -1255,9 +1246,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
         <v>3004</v>
       </c>
       <c r="C33" s="1">
@@ -1270,9 +1260,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
         <v>3005</v>
       </c>
       <c r="C34" s="1">
@@ -1285,9 +1274,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
         <v>3006</v>
       </c>
       <c r="C35" s="1">
@@ -1300,9 +1288,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
         <v>3007</v>
       </c>
       <c r="C36" s="1">
@@ -1315,9 +1302,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
         <v>3008</v>
       </c>
       <c r="C37" s="1">
@@ -1330,9 +1316,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
         <v>3009</v>
       </c>
       <c r="C38" s="1">
@@ -1345,9 +1330,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
         <v>3010</v>
       </c>
       <c r="C39" s="1">
@@ -1360,9 +1344,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
         <v>3011</v>
       </c>
       <c r="C40" s="1">
@@ -1375,9 +1358,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
         <v>3012</v>
       </c>
       <c r="C41" s="1">
@@ -1390,9 +1372,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
         <v>3013</v>
       </c>
       <c r="C42" s="1">
@@ -1405,9 +1386,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
         <v>4014</v>
       </c>
       <c r="C43" s="1">
@@ -1420,9 +1400,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
         <v>4002</v>
       </c>
       <c r="C44" s="1">
@@ -1435,9 +1414,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
         <v>4003</v>
       </c>
       <c r="C45" s="1">
@@ -1450,9 +1428,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
         <v>4004</v>
       </c>
       <c r="C46" s="1">
@@ -1465,9 +1442,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
         <v>4005</v>
       </c>
       <c r="C47" s="1">
@@ -1480,9 +1456,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
         <v>4006</v>
       </c>
       <c r="C48" s="1">
@@ -1495,9 +1470,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
         <v>4007</v>
       </c>
       <c r="C49" s="1">
@@ -1510,9 +1484,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
         <v>4008</v>
       </c>
       <c r="C50" s="1">
@@ -1525,9 +1498,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
         <v>4009</v>
       </c>
       <c r="C51" s="1">
@@ -1540,9 +1512,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
         <v>4010</v>
       </c>
       <c r="C52" s="1">
@@ -1555,9 +1526,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
         <v>4011</v>
       </c>
       <c r="C53" s="1">
@@ -1570,9 +1540,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <f t="shared" si="0"/>
         <v>4012</v>
       </c>
       <c r="C54" s="1">
@@ -1585,9 +1554,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <f t="shared" si="0"/>
         <v>4013</v>
       </c>
       <c r="C55" s="1">
@@ -1601,7 +1569,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1609,204 +1577,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="F28:G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="16.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="14.6328125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <f>B3+1000</f>
+        <v>1001</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f>B4+1000</f>
+        <v>1002</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f>B5+1000</f>
+        <v>1003</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <f>B6+1000</f>
+        <v>1004</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <f>B7+1000</f>
+        <v>1005</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <f>B8+1000</f>
+        <v>1006</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <f>B9+1000</f>
+        <v>1007</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="3">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <f>B10+1000</f>
+        <v>1008</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <f>B11+1000</f>
+        <v>1009</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <f>B12+1000</f>
+        <v>1010</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3">
-        <f ca="1">F3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5">
-        <v>2000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6">
-        <v>3000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7">
-        <v>4000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8">
-        <v>5000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9">
-        <v>6000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10">
-        <v>7000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11">
-        <v>8000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12">
-        <v>9000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ExcelData/Import/PokerData.xlsx
+++ b/ExcelData/Import/PokerData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20AD2E-BB11-4D34-9F64-B92E4691DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FABEF-93F3-41FB-916A-D7526CE91477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pokerRes" sheetId="1" r:id="rId1"/>
     <sheet name="pokerHandRanking" sheetId="2" r:id="rId2"/>
+    <sheet name="index" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pokerHandRanking!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pokerHandRanking!$B$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,53 +31,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1黑桃
 2红心
 3梅花
 4方片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>handImage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tableImage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>dogImage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黑桃A</t>
@@ -236,47 +237,47 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ranking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Royal Flush</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Straight Flush</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Four Of a Kind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Full House</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Flush</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Three of a Kind</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Two Pair</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Pair</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>High Card</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FLUSH</t>
@@ -307,76 +308,151 @@
   </si>
   <si>
     <t>Straight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>STRAIGHT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>皇家同花顺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>同花顺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>四条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>三条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>同花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>顺子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>两对</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>一对</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>eunm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>remarks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>weight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>葫芦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一下编码规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Club</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -420,12 +496,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -765,70 +842,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="12.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -839,737 +940,972 @@
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
         <v>1014</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D4,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E4,index!$G$2:$G$14,0))</f>
+        <v>SA</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
         <v>1002</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D5,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E5,index!$G$2:$G$14,0))</f>
+        <v>S2</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
         <v>1003</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D6,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E6,index!$G$2:$G$14,0))</f>
+        <v>S3</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="M6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
         <v>1004</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D7,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E7,index!$G$2:$G$14,0))</f>
+        <v>S4</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
         <v>1005</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D8,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E8,index!$G$2:$G$14,0))</f>
+        <v>S5</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
         <v>1006</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D9,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E9,index!$G$2:$G$14,0))</f>
+        <v>S6</v>
+      </c>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
         <v>1007</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D10,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E10,index!$G$2:$G$14,0))</f>
+        <v>S7</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+      <c r="Q10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
         <v>1008</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D11,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E11,index!$G$2:$G$14,0))</f>
+        <v>S8</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
         <v>1009</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D12,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E12,index!$G$2:$G$14,0))</f>
+        <v>S9</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
         <v>1010</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D13,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E13,index!$G$2:$G$14,0))</f>
+        <v>ST</v>
+      </c>
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
         <v>1011</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D14,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E14,index!$G$2:$G$14,0))</f>
+        <v>SJ</v>
+      </c>
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>11</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
         <v>1012</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D15,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E15,index!$G$2:$G$14,0))</f>
+        <v>SQ</v>
+      </c>
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+      <c r="O15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
         <v>1013</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D16,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E16,index!$G$2:$G$14,0))</f>
+        <v>SK</v>
+      </c>
+      <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+      <c r="O16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
         <v>2014</v>
       </c>
-      <c r="C17" s="1">
-        <v>2</v>
+      <c r="C17" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D17,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E17,index!$G$2:$G$14,0))</f>
+        <v>HA</v>
       </c>
       <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
         <v>14</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
         <v>2002</v>
       </c>
-      <c r="C18" s="1">
-        <v>2</v>
+      <c r="C18" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D18,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E18,index!$G$2:$G$14,0))</f>
+        <v>H2</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
         <v>2003</v>
       </c>
-      <c r="C19" s="1">
-        <v>2</v>
+      <c r="C19" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D19,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E19,index!$G$2:$G$14,0))</f>
+        <v>H3</v>
       </c>
       <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
         <v>2004</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
+      <c r="C20" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D20,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E20,index!$G$2:$G$14,0))</f>
+        <v>H4</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
         <v>2005</v>
       </c>
-      <c r="C21" s="1">
-        <v>2</v>
+      <c r="C21" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D21,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E21,index!$G$2:$G$14,0))</f>
+        <v>H5</v>
       </c>
       <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
         <v>2006</v>
       </c>
-      <c r="C22" s="1">
-        <v>2</v>
+      <c r="C22" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D22,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E22,index!$G$2:$G$14,0))</f>
+        <v>H6</v>
       </c>
       <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
         <v>2007</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
+      <c r="C23" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D23,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E23,index!$G$2:$G$14,0))</f>
+        <v>H7</v>
       </c>
       <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
         <v>7</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
         <v>2008</v>
       </c>
-      <c r="C24" s="1">
-        <v>2</v>
+      <c r="C24" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D24,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E24,index!$G$2:$G$14,0))</f>
+        <v>H8</v>
       </c>
       <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
         <v>8</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
         <v>2009</v>
       </c>
-      <c r="C25" s="1">
-        <v>2</v>
+      <c r="C25" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D25,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E25,index!$G$2:$G$14,0))</f>
+        <v>H9</v>
       </c>
       <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
         <v>9</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
         <v>2010</v>
       </c>
-      <c r="C26" s="1">
-        <v>2</v>
+      <c r="C26" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D26,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E26,index!$G$2:$G$14,0))</f>
+        <v>HT</v>
       </c>
       <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
         <v>10</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
         <v>2011</v>
       </c>
-      <c r="C27" s="1">
-        <v>2</v>
+      <c r="C27" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D27,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E27,index!$G$2:$G$14,0))</f>
+        <v>HJ</v>
       </c>
       <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
         <v>11</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
         <v>2012</v>
       </c>
-      <c r="C28" s="1">
-        <v>2</v>
+      <c r="C28" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D28,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E28,index!$G$2:$G$14,0))</f>
+        <v>HQ</v>
       </c>
       <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
         <v>12</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="1">
         <v>2013</v>
       </c>
-      <c r="C29" s="1">
-        <v>2</v>
+      <c r="C29" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D29,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E29,index!$G$2:$G$14,0))</f>
+        <v>HK</v>
       </c>
       <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
         <v>13</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
         <v>3014</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D30,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E30,index!$G$2:$G$14,0))</f>
+        <v>CA</v>
+      </c>
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>14</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
         <v>3002</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D31,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E31,index!$G$2:$G$14,0))</f>
+        <v>C2</v>
+      </c>
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="1">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
         <v>3003</v>
       </c>
-      <c r="C32" s="1">
-        <v>3</v>
+      <c r="C32" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D32,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E32,index!$G$2:$G$14,0))</f>
+        <v>C3</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="1">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
         <v>3004</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D33,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E33,index!$G$2:$G$14,0))</f>
+        <v>C4</v>
+      </c>
+      <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="1">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="1">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
         <v>3005</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D34,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E34,index!$G$2:$G$14,0))</f>
+        <v>C5</v>
+      </c>
+      <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="1">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
         <v>3006</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D35,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E35,index!$G$2:$G$14,0))</f>
+        <v>C6</v>
+      </c>
+      <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>6</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="1">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="1">
         <v>3007</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D36,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E36,index!$G$2:$G$14,0))</f>
+        <v>C7</v>
+      </c>
+      <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>7</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="1">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="1">
         <v>3008</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D37,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E37,index!$G$2:$G$14,0))</f>
+        <v>C8</v>
+      </c>
+      <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>8</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="1">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="1">
         <v>3009</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D38,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E38,index!$G$2:$G$14,0))</f>
+        <v>C9</v>
+      </c>
+      <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>9</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="1">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
         <v>3010</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D39,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E39,index!$G$2:$G$14,0))</f>
+        <v>CT</v>
+      </c>
+      <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>10</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="1">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
         <v>3011</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D40,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E40,index!$G$2:$G$14,0))</f>
+        <v>CJ</v>
+      </c>
+      <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>11</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="1">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
         <v>3012</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D41,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E41,index!$G$2:$G$14,0))</f>
+        <v>CQ</v>
+      </c>
+      <c r="D41" s="1">
         <v>3</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>12</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="1">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
         <v>3013</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D42,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E42,index!$G$2:$G$14,0))</f>
+        <v>CK</v>
+      </c>
+      <c r="D42" s="1">
         <v>3</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>13</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="1">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
         <v>4014</v>
       </c>
-      <c r="C43" s="1">
-        <v>4</v>
+      <c r="C43" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D43,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E43,index!$G$2:$G$14,0))</f>
+        <v>DA</v>
       </c>
       <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
         <v>14</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="1">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
         <v>4002</v>
       </c>
-      <c r="C44" s="1">
-        <v>4</v>
+      <c r="C44" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D44,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E44,index!$G$2:$G$14,0))</f>
+        <v>D2</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="1">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
         <v>4003</v>
       </c>
-      <c r="C45" s="1">
-        <v>4</v>
+      <c r="C45" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D45,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E45,index!$G$2:$G$14,0))</f>
+        <v>D3</v>
       </c>
       <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="1">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
         <v>4004</v>
       </c>
-      <c r="C46" s="1">
-        <v>4</v>
+      <c r="C46" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D46,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E46,index!$G$2:$G$14,0))</f>
+        <v>D4</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="1">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
         <v>4005</v>
       </c>
-      <c r="C47" s="1">
-        <v>4</v>
+      <c r="C47" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D47,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E47,index!$G$2:$G$14,0))</f>
+        <v>D5</v>
       </c>
       <c r="D47" s="1">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1">
         <v>5</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="1">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
         <v>4006</v>
       </c>
-      <c r="C48" s="1">
-        <v>4</v>
+      <c r="C48" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D48,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E48,index!$G$2:$G$14,0))</f>
+        <v>D6</v>
       </c>
       <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
         <v>6</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="1">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
         <v>4007</v>
       </c>
-      <c r="C49" s="1">
-        <v>4</v>
+      <c r="C49" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D49,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E49,index!$G$2:$G$14,0))</f>
+        <v>D7</v>
       </c>
       <c r="D49" s="1">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
         <v>7</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="1">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
         <v>4008</v>
       </c>
-      <c r="C50" s="1">
-        <v>4</v>
+      <c r="C50" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D50,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E50,index!$G$2:$G$14,0))</f>
+        <v>D8</v>
       </c>
       <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1">
         <v>8</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="1">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
         <v>4009</v>
       </c>
-      <c r="C51" s="1">
-        <v>4</v>
+      <c r="C51" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D51,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E51,index!$G$2:$G$14,0))</f>
+        <v>D9</v>
       </c>
       <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1">
         <v>9</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="1">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="1">
         <v>4010</v>
       </c>
-      <c r="C52" s="1">
-        <v>4</v>
+      <c r="C52" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D52,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E52,index!$G$2:$G$14,0))</f>
+        <v>DT</v>
       </c>
       <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1">
         <v>10</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="1">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="1">
         <v>4011</v>
       </c>
-      <c r="C53" s="1">
-        <v>4</v>
+      <c r="C53" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D53,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E53,index!$G$2:$G$14,0))</f>
+        <v>DJ</v>
       </c>
       <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1">
         <v>11</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="1">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54" s="1">
         <v>4012</v>
       </c>
-      <c r="C54" s="1">
-        <v>4</v>
+      <c r="C54" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D54,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E54,index!$G$2:$G$14,0))</f>
+        <v>DQ</v>
       </c>
       <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1">
         <v>12</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="1">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="1">
         <v>4013</v>
       </c>
-      <c r="C55" s="1">
-        <v>4</v>
+      <c r="C55" s="1" t="str">
+        <f>INDEX(index!$C$2:$C$5,MATCH(D55,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E55,index!$G$2:$G$14,0))</f>
+        <v>DK</v>
       </c>
       <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1">
         <v>13</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1577,258 +1913,473 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="3"/>
-    <col min="5" max="5" width="16.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="14.6328125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="6" max="6" width="16.36328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="3"/>
+    <col min="9" max="9" width="14.6328125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <f>B3+1000</f>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B13" si="0">C4+1000</f>
         <v>1001</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <f>B4+1000</f>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
         <v>1002</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
-        <f>B5+1000</f>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
-        <f>B6+1000</f>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E7" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
-        <f>B7+1000</f>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E8" s="3">
         <v>50</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
-        <f>B8+1000</f>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E9" s="3">
         <v>50</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
-        <f>B9+1000</f>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E10" s="3">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
-        <f>B10+1000</f>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E11" s="3">
         <v>25</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
-        <f>B11+1000</f>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C12" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
-        <f>B12+1000</f>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD097C8A-ABE7-4634-ABA6-D3528D95D488}">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F9" s="4">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="4">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelData/Import/PokerData.xlsx
+++ b/ExcelData/Import/PokerData.xlsx
@@ -1,83 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FABEF-93F3-41FB-916A-D7526CE91477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24930" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pokerRes" sheetId="1" r:id="rId1"/>
-    <sheet name="pokerHandRanking" sheetId="2" r:id="rId2"/>
+    <sheet name="rankingModel" sheetId="2" r:id="rId2"/>
     <sheet name="index" sheetId="3" r:id="rId3"/>
+    <sheet name="rankingInstance" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pokerHandRanking!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">rankingModel!$B$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+  <si>
+    <t>head</t>
   </si>
   <si>
     <t>1黑桃
 2红心
 3梅花
 4方片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
   <si>
     <t>handImage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tableImage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>dogImage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黑桃A</t>
@@ -236,255 +218,566 @@
     <t>方片K</t>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>*</t>
   </si>
   <si>
     <t>ranking</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>eunm</t>
+  </si>
+  <si>
+    <t>eth</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>概率估算</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>High Card</t>
+  </si>
+  <si>
+    <t>HIGH_CARD</t>
+  </si>
+  <si>
+    <t>高牌</t>
+  </si>
+  <si>
+    <t>eth列除以10000来使用</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>PAIR</t>
+  </si>
+  <si>
+    <t>一对</t>
+  </si>
+  <si>
+    <t>Two Pair</t>
+  </si>
+  <si>
+    <t>TWO_PAIR</t>
+  </si>
+  <si>
+    <t>两对</t>
+  </si>
+  <si>
+    <t>Three of a Kind</t>
+  </si>
+  <si>
+    <t>THREE_OF_A_KIND</t>
+  </si>
+  <si>
+    <t>三条</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>STRAIGHT</t>
+  </si>
+  <si>
+    <t>顺子</t>
+  </si>
+  <si>
+    <t>Flush</t>
+  </si>
+  <si>
+    <t>FLUSH</t>
+  </si>
+  <si>
+    <t>同花</t>
+  </si>
+  <si>
+    <t>Full House</t>
+  </si>
+  <si>
+    <t>FULL_HOUSE</t>
+  </si>
+  <si>
+    <t>葫芦</t>
+  </si>
+  <si>
+    <t>Four Of a Kind</t>
+  </si>
+  <si>
+    <t>FOUR_OF_A_KIND</t>
+  </si>
+  <si>
+    <t>四条</t>
+  </si>
+  <si>
+    <t>Straight Flush</t>
+  </si>
+  <si>
+    <t>STRAIGHT_FLUSH</t>
+  </si>
+  <si>
+    <t>同花顺</t>
   </si>
   <si>
     <t>Royal Flush</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Straight Flush</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Four Of a Kind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full House</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flush</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three of a Kind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two Pair</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pair</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>High Card</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLUSH</t>
-  </si>
-  <si>
-    <t>PAIR</t>
   </si>
   <si>
     <t>ROYAL_FLUSH</t>
   </si>
   <si>
-    <t>STRAIGHT_FLUSH</t>
-  </si>
-  <si>
-    <t>FOUR_OF_A_KIND</t>
-  </si>
-  <si>
-    <t>FULL_HOUSE</t>
-  </si>
-  <si>
-    <t>THREE_OF_A_KIND</t>
-  </si>
-  <si>
-    <t>TWO_PAIR</t>
-  </si>
-  <si>
-    <t>HIGH_CARD</t>
-  </si>
-  <si>
-    <t>Straight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRAIGHT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>皇家同花顺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>四条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>两对</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一对</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eunm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>葫芦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>head</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spade</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>rankingName</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>pk1</t>
+  </si>
+  <si>
+    <t>pk2</t>
+  </si>
+  <si>
+    <t>pk3</t>
+  </si>
+  <si>
+    <t>pk4</t>
+  </si>
+  <si>
+    <t>pk5</t>
+  </si>
+  <si>
+    <t>pk6</t>
+  </si>
+  <si>
+    <t>pk7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
   </si>
   <si>
     <t>设计一下编码规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> *</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Club</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diamond</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -492,30 +785,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -564,7 +1151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,26 +1184,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,23 +1219,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -836,120 +1389,102 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.2545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1272727272727" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8727272727273" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1272727272727" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6272727272727" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" ht="75" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>1014</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D4,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E4,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D4,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E4,index!$G$2:$G$14,0))</f>
         <v>SA</v>
       </c>
       <c r="D4" s="1">
@@ -959,15 +1494,15 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D5,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E5,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D5,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E5,index!$G$2:$G$14,0))</f>
         <v>S2</v>
       </c>
       <c r="D5" s="1">
@@ -977,15 +1512,15 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>1003</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D6,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E6,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D6,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E6,index!$G$2:$G$14,0))</f>
         <v>S3</v>
       </c>
       <c r="D6" s="1">
@@ -995,18 +1530,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>1004</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D7,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E7,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D7,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E7,index!$G$2:$G$14,0))</f>
         <v>S4</v>
       </c>
       <c r="D7" s="1">
@@ -1016,15 +1548,15 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="1">
         <v>1005</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D8,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E8,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D8,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E8,index!$G$2:$G$14,0))</f>
         <v>S5</v>
       </c>
       <c r="D8" s="1">
@@ -1034,15 +1566,15 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="1">
         <v>1006</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D9,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E9,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D9,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E9,index!$G$2:$G$14,0))</f>
         <v>S6</v>
       </c>
       <c r="D9" s="1">
@@ -1052,15 +1584,15 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="1">
         <v>1007</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D10,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E10,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D10,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E10,index!$G$2:$G$14,0))</f>
         <v>S7</v>
       </c>
       <c r="D10" s="1">
@@ -1070,18 +1602,15 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="1">
         <v>1008</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D11,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E11,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D11,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E11,index!$G$2:$G$14,0))</f>
         <v>S8</v>
       </c>
       <c r="D11" s="1">
@@ -1091,15 +1620,15 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="1">
         <v>1009</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D12,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E12,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D12,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E12,index!$G$2:$G$14,0))</f>
         <v>S9</v>
       </c>
       <c r="D12" s="1">
@@ -1109,27 +1638,15 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2</v>
-      </c>
-      <c r="O12" s="1">
-        <v>3</v>
-      </c>
-      <c r="P12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="1">
         <v>1010</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D13,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E13,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D13,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E13,index!$G$2:$G$14,0))</f>
         <v>ST</v>
       </c>
       <c r="D13" s="1">
@@ -1139,15 +1656,15 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="1">
         <v>1011</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D14,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E14,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D14,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E14,index!$G$2:$G$14,0))</f>
         <v>SJ</v>
       </c>
       <c r="D14" s="1">
@@ -1157,15 +1674,15 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="1">
         <v>1012</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D15,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E15,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D15,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E15,index!$G$2:$G$14,0))</f>
         <v>SQ</v>
       </c>
       <c r="D15" s="1">
@@ -1175,18 +1692,15 @@
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="1">
         <v>1013</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D16,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E16,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D16,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E16,index!$G$2:$G$14,0))</f>
         <v>SK</v>
       </c>
       <c r="D16" s="1">
@@ -1196,18 +1710,15 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="1">
         <v>2014</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D17,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E17,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D17,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E17,index!$G$2:$G$14,0))</f>
         <v>HA</v>
       </c>
       <c r="D17" s="1">
@@ -1217,15 +1728,15 @@
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="1">
         <v>2002</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D18,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E18,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D18,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E18,index!$G$2:$G$14,0))</f>
         <v>H2</v>
       </c>
       <c r="D18" s="1">
@@ -1235,15 +1746,15 @@
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="1">
         <v>2003</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D19,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E19,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D19,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E19,index!$G$2:$G$14,0))</f>
         <v>H3</v>
       </c>
       <c r="D19" s="1">
@@ -1253,15 +1764,15 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="1">
         <v>2004</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D20,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E20,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D20,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E20,index!$G$2:$G$14,0))</f>
         <v>H4</v>
       </c>
       <c r="D20" s="1">
@@ -1271,15 +1782,15 @@
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="1">
         <v>2005</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D21,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E21,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D21,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E21,index!$G$2:$G$14,0))</f>
         <v>H5</v>
       </c>
       <c r="D21" s="1">
@@ -1289,15 +1800,15 @@
         <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="1">
         <v>2006</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D22,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E22,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D22,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E22,index!$G$2:$G$14,0))</f>
         <v>H6</v>
       </c>
       <c r="D22" s="1">
@@ -1307,15 +1818,15 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="1">
         <v>2007</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D23,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E23,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D23,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E23,index!$G$2:$G$14,0))</f>
         <v>H7</v>
       </c>
       <c r="D23" s="1">
@@ -1325,15 +1836,15 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="1">
         <v>2008</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D24,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E24,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D24,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E24,index!$G$2:$G$14,0))</f>
         <v>H8</v>
       </c>
       <c r="D24" s="1">
@@ -1343,15 +1854,15 @@
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="1">
         <v>2009</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D25,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E25,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D25,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E25,index!$G$2:$G$14,0))</f>
         <v>H9</v>
       </c>
       <c r="D25" s="1">
@@ -1361,15 +1872,15 @@
         <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="1">
         <v>2010</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D26,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E26,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D26,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E26,index!$G$2:$G$14,0))</f>
         <v>HT</v>
       </c>
       <c r="D26" s="1">
@@ -1379,15 +1890,15 @@
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="1">
         <v>2011</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D27,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E27,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D27,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E27,index!$G$2:$G$14,0))</f>
         <v>HJ</v>
       </c>
       <c r="D27" s="1">
@@ -1397,15 +1908,15 @@
         <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="1">
         <v>2012</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D28,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E28,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D28,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E28,index!$G$2:$G$14,0))</f>
         <v>HQ</v>
       </c>
       <c r="D28" s="1">
@@ -1415,15 +1926,15 @@
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="1">
         <v>2013</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D29,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E29,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D29,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E29,index!$G$2:$G$14,0))</f>
         <v>HK</v>
       </c>
       <c r="D29" s="1">
@@ -1433,15 +1944,15 @@
         <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="1">
         <v>3014</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D30,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E30,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D30,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E30,index!$G$2:$G$14,0))</f>
         <v>CA</v>
       </c>
       <c r="D30" s="1">
@@ -1451,15 +1962,15 @@
         <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="1">
         <v>3002</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D31,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E31,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D31,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E31,index!$G$2:$G$14,0))</f>
         <v>C2</v>
       </c>
       <c r="D31" s="1">
@@ -1469,15 +1980,15 @@
         <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="1">
         <v>3003</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D32,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E32,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D32,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E32,index!$G$2:$G$14,0))</f>
         <v>C3</v>
       </c>
       <c r="D32" s="1">
@@ -1487,15 +1998,15 @@
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="1">
         <v>3004</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D33,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E33,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D33,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E33,index!$G$2:$G$14,0))</f>
         <v>C4</v>
       </c>
       <c r="D33" s="1">
@@ -1505,15 +2016,15 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="1">
         <v>3005</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D34,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E34,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D34,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E34,index!$G$2:$G$14,0))</f>
         <v>C5</v>
       </c>
       <c r="D34" s="1">
@@ -1523,15 +2034,15 @@
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="1">
         <v>3006</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D35,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E35,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D35,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E35,index!$G$2:$G$14,0))</f>
         <v>C6</v>
       </c>
       <c r="D35" s="1">
@@ -1541,15 +2052,15 @@
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="1">
         <v>3007</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D36,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E36,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D36,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E36,index!$G$2:$G$14,0))</f>
         <v>C7</v>
       </c>
       <c r="D36" s="1">
@@ -1559,15 +2070,15 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="1">
         <v>3008</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D37,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E37,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D37,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E37,index!$G$2:$G$14,0))</f>
         <v>C8</v>
       </c>
       <c r="D37" s="1">
@@ -1577,15 +2088,15 @@
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="1">
         <v>3009</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D38,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E38,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D38,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E38,index!$G$2:$G$14,0))</f>
         <v>C9</v>
       </c>
       <c r="D38" s="1">
@@ -1595,15 +2106,15 @@
         <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="1">
         <v>3010</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D39,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E39,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D39,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E39,index!$G$2:$G$14,0))</f>
         <v>CT</v>
       </c>
       <c r="D39" s="1">
@@ -1613,15 +2124,15 @@
         <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="1">
         <v>3011</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D40,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E40,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D40,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E40,index!$G$2:$G$14,0))</f>
         <v>CJ</v>
       </c>
       <c r="D40" s="1">
@@ -1631,15 +2142,15 @@
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="1">
         <v>3012</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D41,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E41,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D41,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E41,index!$G$2:$G$14,0))</f>
         <v>CQ</v>
       </c>
       <c r="D41" s="1">
@@ -1649,15 +2160,15 @@
         <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="1">
         <v>3013</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D42,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E42,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D42,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E42,index!$G$2:$G$14,0))</f>
         <v>CK</v>
       </c>
       <c r="D42" s="1">
@@ -1667,15 +2178,15 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="1">
         <v>4014</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D43,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E43,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D43,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E43,index!$G$2:$G$14,0))</f>
         <v>DA</v>
       </c>
       <c r="D43" s="1">
@@ -1685,15 +2196,15 @@
         <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="1">
         <v>4002</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D44,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E44,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D44,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E44,index!$G$2:$G$14,0))</f>
         <v>D2</v>
       </c>
       <c r="D44" s="1">
@@ -1703,15 +2214,15 @@
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="1">
         <v>4003</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D45,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E45,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D45,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E45,index!$G$2:$G$14,0))</f>
         <v>D3</v>
       </c>
       <c r="D45" s="1">
@@ -1721,15 +2232,15 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="1">
         <v>4004</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D46,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E46,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D46,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E46,index!$G$2:$G$14,0))</f>
         <v>D4</v>
       </c>
       <c r="D46" s="1">
@@ -1739,15 +2250,15 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="1">
         <v>4005</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D47,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E47,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D47,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E47,index!$G$2:$G$14,0))</f>
         <v>D5</v>
       </c>
       <c r="D47" s="1">
@@ -1757,15 +2268,15 @@
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="1">
         <v>4006</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D48,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E48,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D48,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E48,index!$G$2:$G$14,0))</f>
         <v>D6</v>
       </c>
       <c r="D48" s="1">
@@ -1775,15 +2286,15 @@
         <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="1">
         <v>4007</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D49,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E49,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D49,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E49,index!$G$2:$G$14,0))</f>
         <v>D7</v>
       </c>
       <c r="D49" s="1">
@@ -1793,15 +2304,15 @@
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="1">
         <v>4008</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D50,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E50,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D50,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E50,index!$G$2:$G$14,0))</f>
         <v>D8</v>
       </c>
       <c r="D50" s="1">
@@ -1811,15 +2322,15 @@
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="1">
         <v>4009</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D51,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E51,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D51,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E51,index!$G$2:$G$14,0))</f>
         <v>D9</v>
       </c>
       <c r="D51" s="1">
@@ -1829,15 +2340,15 @@
         <v>9</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="1">
         <v>4010</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D52,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E52,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D52,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E52,index!$G$2:$G$14,0))</f>
         <v>DT</v>
       </c>
       <c r="D52" s="1">
@@ -1847,15 +2358,15 @@
         <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="1">
         <v>4011</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D53,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E53,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D53,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E53,index!$G$2:$G$14,0))</f>
         <v>DJ</v>
       </c>
       <c r="D53" s="1">
@@ -1865,15 +2376,15 @@
         <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="1">
         <v>4012</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D54,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E54,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D54,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E54,index!$G$2:$G$14,0))</f>
         <v>DQ</v>
       </c>
       <c r="D54" s="1">
@@ -1883,15 +2394,15 @@
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="1">
         <v>4013</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>INDEX(index!$C$2:$C$5,MATCH(D55,index!$D$2:$D$5,0)) &amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E55,index!$G$2:$G$14,0))</f>
+        <f>INDEX(index!$C$2:$C$5,MATCH(D55,index!$D$2:$D$5,0))&amp;INDEX(index!$F$2:$F$14,MATCH(pokerRes!E55,index!$G$2:$G$14,0))</f>
         <v>DK</v>
       </c>
       <c r="D55" s="1">
@@ -1901,485 +2412,989 @@
         <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="3"/>
-    <col min="3" max="3" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="16.36328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="3"/>
-    <col min="9" max="9" width="14.6328125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="2" width="8.75454545454545" style="1"/>
+    <col min="3" max="3" width="9.25454545454545" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.62727272727273" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.3727272727273" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75454545454545" style="1"/>
+    <col min="10" max="10" width="14.6272727272727" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75454545454545" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="3">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1">
         <f t="shared" ref="B4:B13" si="0">C4+1000</f>
         <v>1001</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="3">
+      <c r="F4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="1">
+        <v>128</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="5">
+        <f>E4/SUM($E$4:$E$13)</f>
+        <v>0.0168067226890756</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>1002</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="3">
+      <c r="F5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="1">
+        <v>260</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:I13" si="1">E5/SUM($E$4:$E$13)</f>
+        <v>0.0420168067226891</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="3">
+      <c r="G6" s="1">
+        <v>260</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0840336134453782</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="1">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="3">
+      <c r="F7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1">
+        <v>260</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.126050420168067</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="1">
         <v>50</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="3">
+      <c r="F8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="1">
+        <v>520</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.210084033613445</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1">
         <v>50</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
+      <c r="F9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1">
+        <v>520</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.210084033613445</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1">
         <v>25</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="3">
+      <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="1">
+        <v>520</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.105042016806723</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1">
         <v>25</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1">
+        <v>520</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.105042016806723</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
+      <c r="F12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="1">
+        <v>520</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0840336134453782</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="1">
+        <v>990</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.0168067226890756</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD097C8A-ABE7-4634-ABA6-D3528D95D488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="16384" width="8.75454545454545" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="1">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="1">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="8.75454545454545" style="3"/>
+    <col min="3" max="3" width="32.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.1272727272727" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.75454545454545" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="4">
+        <v>117</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="13:14">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="13:14">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="13:14">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="13:14">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="13:13">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="13:13">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="13:14">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="13:13">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="13:14">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:U28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24:N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="17" max="17" width="15.1818181818182"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="16.5" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:7">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:7">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:7">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F6" s="4">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:7">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F7" s="4">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F8" s="4">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F9" s="4">
-        <v>9</v>
-      </c>
-      <c r="G9" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="4">
-        <v>14</v>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="23" spans="17:19">
+      <c r="Q23">
+        <v>1750</v>
+      </c>
+      <c r="R23">
+        <v>6.7</v>
+      </c>
+      <c r="S23">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="24" spans="14:21">
+      <c r="N24">
+        <f>O24*10000</f>
+        <v>990</v>
+      </c>
+      <c r="O24">
+        <v>0.099</v>
+      </c>
+      <c r="P24">
+        <f>O24*$Q$23*$R$23</f>
+        <v>1160.775</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>P24*$S$23</f>
+        <v>6036030</v>
+      </c>
+      <c r="U24">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="25" spans="14:21">
+      <c r="N25">
+        <f>O25*10000</f>
+        <v>520</v>
+      </c>
+      <c r="O25">
+        <v>0.052</v>
+      </c>
+      <c r="P25">
+        <f>O25*$Q$23*$R$23</f>
+        <v>609.7</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>P25*$S$23</f>
+        <v>3170440</v>
+      </c>
+      <c r="U25">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="26" spans="14:17">
+      <c r="N26">
+        <f>O26*10000</f>
+        <v>260</v>
+      </c>
+      <c r="O26">
+        <v>0.026</v>
+      </c>
+      <c r="P26">
+        <f>O26*$Q$23*$R$23</f>
+        <v>304.85</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>P26*$S$23</f>
+        <v>1585220</v>
+      </c>
+    </row>
+    <row r="27" spans="17:17">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="14:17">
+      <c r="N28" t="s">
+        <v>128</v>
+      </c>
+      <c r="O28">
+        <v>0.003</v>
+      </c>
+      <c r="P28">
+        <f>O28*$Q$23*$R$23</f>
+        <v>35.175</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>P28*$S$23</f>
+        <v>182910</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>